--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB404E3-9B1B-407C-8733-D413C1A14B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92697994-FD96-4952-B6D4-254A53B47078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4203,19 +4214,19 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10646387832699621</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16349809885931563</v>
+        <v>0.16538461538461541</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15209125475285173</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.2737642585551326E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4941,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4982,7 +4993,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>13389.5029751</v>
+        <v>13236.771001999999</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5214,7 +5225,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9320341500002396</v>
+        <v>6.8529615171105034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5246,7 +5257,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.2737642585551326E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5276,20 +5287,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4267835851100301</v>
+        <v>1.4316495592496956</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.5673038573950846</v>
+        <v>2.5760595189467872</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.678568923658859</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2324381368652912</v>
+        <v>2.2400517556059021</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12212,17 +12223,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14425780057646795</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14425780057646795</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14425780057646795</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12263,17 +12274,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10646387832699621</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2737642585551326E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2737642585551326E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12333,14 +12344,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.233848977269362</v>
+        <v>11.315794536503423</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.233848977269362</v>
+        <v>11.315794536503423</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12361,14 +12372,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.376201669315384</v>
+        <v>3.3877160364448016</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.376201669315384</v>
+        <v>3.3877160364448016</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12411,21 +12422,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28434663.096618969</v>
+        <v>28642080.373974159</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.5852083593528139</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.5852083593528139</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.4281323620477604</v>
+        <v>7.4823170374608159</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12474,27 +12485,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>28434663.096618969</v>
+        <v>28642080.373974159</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7474271054498915</v>
+        <v>4.7820573172202474</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.5852083593528139</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.5852083593528139</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.5852083593528139</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.4281323620477604</v>
+        <v>7.4823170374608159</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12535,27 +12546,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8545704.7898253612</v>
+        <v>8574849.489096133</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4267835851100301</v>
+        <v>1.4316495592496956</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.678568923658859</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.678568923658859</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.678568923658859</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2324381368652912</v>
+        <v>2.2400517556059021</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12596,27 +12607,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18490183.943222165</v>
+        <v>18608464.931535143</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.0871053452799608</v>
+        <v>3.1068534382349715</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6318886415058365</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6318886415058365</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6318886415058365</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.8302852494565256</v>
+        <v>4.8611843965333588</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92697994-FD96-4952-B6D4-254A53B47078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FBCC443-D23D-4FE7-9A91-16EB311ACB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Current Price:</t>
   </si>
   <si>
+    <t>HKD</t>
+  </si>
+  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +900,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,29 +950,58 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0639.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>首鋼資源</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>C0017</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>首鋼資源</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1023,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1205,13 +1216,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1557,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2199,7 +2203,14 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="271" t="s">
-        <v>268</v>
+        <v>191</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3659,7 +3670,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="190">
         <v>8</v>
@@ -3667,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>5091065770</v>
@@ -3692,15 +3703,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="219">
         <v>45291</v>
@@ -3708,7 +3719,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="220">
         <v>1000</v>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3724,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="176" t="s">
         <v>255</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3741,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3855,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="149">
         <v>5891068</v>
@@ -3868,7 +3879,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>2425040</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <f>415858+9934</f>
@@ -3918,7 +3929,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3934,7 +3945,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>2921</v>
@@ -3954,7 +3965,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>346446</v>
@@ -3974,7 +3985,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3990,7 +4001,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4006,7 +4017,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4022,7 +4033,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -4038,7 +4049,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4054,7 +4065,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4070,7 +4081,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="217"/>
       <c r="D37" s="150"/>
@@ -4086,7 +4097,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4102,7 +4113,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="217"/>
       <c r="D39" s="150"/>
@@ -4118,7 +4129,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="217"/>
       <c r="D40" s="150"/>
@@ -4134,7 +4145,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4150,7 +4161,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4166,7 +4177,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4182,7 +4193,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.18+0.1</f>
@@ -4210,7 +4221,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4259,21 +4270,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="D47" s="194" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4283,7 +4294,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4293,7 +4304,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4304,7 +4315,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4314,7 +4325,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4324,7 +4335,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4335,7 +4346,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4345,7 +4356,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4356,7 +4367,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4364,24 +4375,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4392,7 +4403,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4403,7 +4414,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4414,7 +4425,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4425,7 +4436,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4436,7 +4447,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4447,7 +4458,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4457,31 +4468,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4489,12 +4500,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4505,7 +4516,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4516,7 +4527,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4526,7 +4537,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4537,7 +4548,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4547,85 +4558,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4633,10 +4644,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4644,18 +4655,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="272">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="272"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4664,20 +4675,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="273"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4695,7 +4706,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4716,7 +4727,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4737,7 +4748,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4755,7 +4766,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4776,7 +4787,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4794,7 +4805,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4812,7 +4823,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4899,7 +4910,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4940,13 +4951,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="278" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4955,53 +4966,53 @@
         <v>2.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="280" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="284">
+        <v>3</v>
+      </c>
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="284"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="282">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="283"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="276">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
         <v>13236.771001999999</v>
       </c>
-      <c r="H5" s="276"/>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="185">
         <f>Inputs!C7</f>
@@ -5016,18 +5027,18 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="277" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="277"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5039,7 +5050,7 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="133">
         <v>1</v>
@@ -5052,40 +5063,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5098,29 +5109,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5130,12 +5141,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5145,29 +5156,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.41164692038862905</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5175,7 +5186,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5186,26 +5197,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.8411588526902082E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5214,14 +5225,14 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -5230,14 +5241,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5246,14 +5257,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.43716809923090344</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5264,26 +5275,26 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="274" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="274"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5298,31 +5309,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>1.6842935991172889</v>
       </c>
-      <c r="G29" s="275">
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>2.2400517556059021</v>
       </c>
-      <c r="H29" s="275"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5332,25 +5343,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5360,7 +5371,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5370,14 +5381,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5387,7 +5398,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5402,14 +5413,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6362,12 +6373,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D50" sqref="D50"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6389,21 +6400,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6414,14 +6425,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6443,7 +6454,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6454,7 +6465,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6465,7 +6476,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6515,7 +6526,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6566,7 +6577,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6617,7 +6628,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6668,7 +6679,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6719,7 +6730,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6770,7 +6781,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6821,7 +6832,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6872,7 +6883,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6923,7 +6934,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6974,7 +6985,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7025,7 +7036,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7076,7 +7087,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7127,7 +7138,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7178,7 +7189,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7229,7 +7240,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7280,7 +7291,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7331,7 +7342,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7382,7 +7393,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7433,7 +7444,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7484,7 +7495,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7535,7 +7546,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7586,7 +7597,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7637,7 +7648,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7688,7 +7699,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7739,7 +7750,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7790,7 +7801,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7841,7 +7852,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7892,7 +7903,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7943,7 +7954,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7994,7 +8005,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8045,7 +8056,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8096,7 +8107,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8147,7 +8158,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8198,7 +8209,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8249,7 +8260,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8300,7 +8311,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8318,7 +8329,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8369,7 +8380,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8420,7 +8431,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8471,7 +8482,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8522,7 +8533,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8573,7 +8584,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8624,7 +8635,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8675,7 +8686,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8692,50 +8703,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8744,10 +8755,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8795,167 +8806,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8963,112 +8975,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.1341984719189775E-3</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>3.3967563807194446E-4</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="F56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="G56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.1341984719189775E-3</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.3967563807194446E-4</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9631,7 +9833,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10314,6 +10518,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10353,8 +10558,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10382,7 +10587,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10432,7 +10637,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10441,12 +10646,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10456,7 +10662,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10466,8 +10672,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10479,7 +10686,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10497,7 +10704,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10516,32 +10723,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10558,7 +10765,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10569,7 +10776,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10586,7 +10793,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10597,7 +10804,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10614,7 +10821,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10625,7 +10832,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10642,7 +10849,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10653,7 +10860,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10670,7 +10877,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10680,7 +10887,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10702,7 +10909,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10724,7 +10931,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10745,7 +10952,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10770,7 +10977,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10797,7 +11004,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10818,7 +11025,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10835,7 +11042,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10847,13 +11054,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10875,7 +11082,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10895,7 +11102,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10904,7 +11111,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10924,7 +11131,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10937,7 +11144,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10957,7 +11164,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10970,7 +11177,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10987,7 +11194,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
@@ -11003,7 +11210,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11012,7 +11219,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11028,7 +11235,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11038,7 +11245,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11055,7 +11262,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11065,7 +11272,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11082,7 +11289,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11092,7 +11299,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11112,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11122,7 +11329,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11139,7 +11346,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11149,7 +11356,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11175,7 +11382,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11202,7 +11409,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11229,7 +11436,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11250,7 +11457,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11271,7 +11478,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11292,7 +11499,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11313,7 +11520,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11330,7 +11537,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11348,7 +11555,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11367,7 +11574,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11386,7 +11593,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11403,7 +11610,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11416,7 +11623,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11433,7 +11640,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11446,7 +11653,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11463,7 +11670,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11473,7 +11680,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11490,7 +11697,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11506,14 +11713,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11525,12 +11732,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11560,7 +11767,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11571,14 +11778,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="285">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11586,30 +11793,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="284">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="284">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11626,11 +11833,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11640,7 +11847,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11661,7 +11868,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11682,7 +11889,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11703,7 +11910,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11718,7 +11925,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11749,11 +11956,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11763,7 +11970,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11784,7 +11991,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11799,7 +12006,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11821,23 +12028,23 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="272">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="272"/>
-      <c r="E72" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="286"/>
-      <c r="H72" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="286"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11845,23 +12052,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="273"/>
-      <c r="E73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="273"/>
-      <c r="H73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="273"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11882,7 +12089,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11912,7 +12119,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11933,7 +12140,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11963,7 +12170,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11993,7 +12200,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12024,7 +12231,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12051,12 +12258,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12086,7 +12293,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12116,7 +12323,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12146,7 +12353,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12167,7 +12374,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12198,7 +12405,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12219,7 +12426,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -12240,7 +12447,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12270,7 +12477,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12301,29 +12508,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="286"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="286"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12340,14 +12547,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>11.315794536503423</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -12357,7 +12564,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12368,14 +12575,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>3.3877160364448016</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12398,27 +12605,27 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
@@ -12442,7 +12649,7 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12460,7 +12667,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12481,7 +12688,7 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
@@ -12515,34 +12722,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12576,34 +12783,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12636,7 +12843,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12645,6 +12852,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FBCC443-D23D-4FE7-9A91-16EB311ACB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66821FE-92D0-4517-9BB9-32AC05AD0067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.41164692038862905</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.227755646344601E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8411588526902082E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9583539011941466E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43716809923090344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>5091065770</v>
@@ -3703,7 +2866,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3945,7 +3108,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>2921</v>
@@ -4065,7 +3228,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4161,7 +3324,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4193,7 +3356,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.18+0.1</f>
@@ -4221,23 +3384,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1076923076923077</v>
+        <v>0.10810810810810813</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16538461538461541</v>
+        <v>0.16602316602316605</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15384615384615385</v>
+        <v>0.15444015444015446</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3706563706563704E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4270,13 +3433,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4335,7 +3498,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4346,7 +3509,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4447,7 +3610,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4458,7 +3621,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4618,7 +3781,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4636,7 +3799,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4644,10 +3807,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4657,16 +3820,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4675,10 +3838,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4727,7 +3890,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4748,7 +3911,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4766,7 +3929,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4805,7 +3968,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4823,7 +3986,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4909,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4951,62 +4114,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13236.771001999999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>13185.860344299999</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5029,16 +4192,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5063,40 +4226,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5109,29 +4272,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5141,12 +4304,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5154,9 +4317,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5164,59 +4327,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.41164692038862905</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>7.227755646344601E-2</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>7.8411588526902082E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.43766393462102288</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5225,30 +4388,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8529615171105034</v>
+        <v>6.8266039728139241</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5257,18 +4420,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.43716809923090344</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3706563706563704E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5278,62 +4441,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4316495592496956</v>
+        <v>1.4332996046684026</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.5760595189467872</v>
+        <v>2.579028552241347</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6842935991172889</v>
-      </c>
-      <c r="G29" s="278">
+        <v>1.68623482902165</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2400517556059021</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>2.2426335236881281</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5343,7 +4506,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5354,14 +4517,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5371,7 +4534,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5381,14 +4544,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5398,7 +4561,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5413,14 +4576,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6364,7 +5527,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6378,7 +5540,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6405,16 +5567,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6432,7 +5594,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6465,7 +5627,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6832,7 +5994,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6883,7 +6045,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6934,7 +6096,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6985,7 +6147,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7087,7 +6249,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7240,7 +6402,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7750,7 +6912,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8260,7 +7422,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8311,7 +7473,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8380,7 +7542,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8584,7 +7746,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8686,7 +7848,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8704,14 +7866,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8755,7 +7917,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8806,7 +7968,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8857,7 +8019,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8908,7 +8070,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8925,7 +8087,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9125,7 +8287,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9175,7 +8337,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9225,7 +8387,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10729,7 +9891,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10887,7 +10049,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11299,7 +10461,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11767,7 +10929,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11781,11 +10943,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11796,11 +10958,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11812,11 +10974,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11833,7 +10995,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11910,7 +11072,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11956,7 +11118,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11991,7 +11153,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12030,19 +11192,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12052,18 +11214,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12140,7 +11302,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12170,7 +11332,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12200,7 +11362,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12263,7 +11425,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12293,7 +11455,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12374,7 +11536,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12405,7 +11567,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12426,28 +11588,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14648572027649062</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14648572027649062</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14648572027649062</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12477,21 +11639,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1076923076923077</v>
+        <v>0.10810810810810813</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3706563706563704E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3706563706563704E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12513,24 +11675,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12547,24 +11709,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.315794536503423</v>
+        <v>11.343639642573951</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.315794536503423</v>
+        <v>11.343639642573951</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12575,18 +11737,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3877160364448016</v>
+        <v>3.3916205431655282</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3877160364448016</v>
+        <v>3.3916205431655282</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12605,14 +11767,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12629,21 +11791,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28642080.373974159</v>
+        <v>28712560.777583566</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6397937238951767</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6397937238951767</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.4823170374608159</v>
+        <v>7.5007289935006076</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12692,27 +11854,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>28642080.373974159</v>
+        <v>28712560.777583566</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7820573172202474</v>
+        <v>4.7938246653109005</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6397937238951767</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6259497849649973</v>
+        <v>5.6397937238951767</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6397937238951767</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.4823170374608159</v>
+        <v>7.5007289935006076</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12722,21 +11884,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12749,31 +11911,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8574849.489096133</v>
+        <v>8584732.4182139263</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4316495592496956</v>
+        <v>1.4332996046684026</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6842935991172889</v>
+        <v>1.68623482902165</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6842935991172889</v>
+        <v>1.68623482902165</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6842935991172889</v>
+        <v>1.68623482902165</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2400517556059021</v>
+        <v>2.2426335236881281</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12783,21 +11945,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12810,31 +11972,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18608464.931535143</v>
+        <v>18648646.597898748</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1068534382349715</v>
+        <v>3.1135621349896514</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6630142764584135</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6630142764584135</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6630142764584135</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.8611843965333588</v>
+        <v>4.8716812585943678</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12843,7 +12005,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66821FE-92D0-4517-9BB9-32AC05AD0067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5890A719-739E-4A5A-A05A-780EFC10B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>5091065770</v>
@@ -2866,7 +2886,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3108,7 +3128,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>2921</v>
@@ -3194,9 +3214,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3212,7 +3232,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3228,7 +3248,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3243,10 +3263,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3258,9 +3279,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3307,10 +3328,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3324,9 +3346,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3340,7 +3362,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3356,7 +3378,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.18+0.1</f>
@@ -3384,23 +3406,23 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10810810810810813</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16602316602316605</v>
+        <v>0.16538461538461541</v>
       </c>
       <c r="E45" s="152">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15444015444015446</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F45" s="152">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3706563706563704E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3433,13 +3455,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3457,7 +3479,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3467,7 +3489,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3498,7 +3520,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3509,7 +3531,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3543,7 +3565,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3610,7 +3632,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3621,7 +3643,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3668,7 +3690,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3781,7 +3803,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3799,7 +3821,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3807,10 +3829,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3818,7 +3840,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3826,10 +3848,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3851,7 +3873,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3890,7 +3912,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3911,7 +3933,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3929,7 +3951,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3968,7 +3990,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3986,7 +4008,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4009,28 +4031,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4072,8 +4099,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4114,7 +4141,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4126,15 +4153,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4154,7 +4181,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4167,7 +4194,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13185.860344299999</v>
+        <v>13236.771001999999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4201,7 +4228,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4226,40 +4253,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4272,29 +4299,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4304,12 +4331,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4319,7 +4346,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4327,21 +4354,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4349,10 +4376,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4360,58 +4387,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.43766393462102288</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8266039728139241</v>
+        <v>6.8529615171105034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4420,18 +4447,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3706563706563704E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4441,40 +4468,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4332996046684026</v>
+        <v>1.4316495592496956</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.579028552241347</v>
+        <v>2.5760595189467872</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.68623482902165</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2426335236881281</v>
+        <v>2.2400517556059021</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4482,21 +4509,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4506,25 +4533,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4534,7 +4561,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4544,14 +4571,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4561,7 +4588,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4576,14 +4603,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5483,27 +5510,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5535,12 +5562,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5567,16 +5594,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5594,7 +5621,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5627,7 +5654,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5638,7 +5665,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5994,7 +6021,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6045,7 +6072,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6096,7 +6123,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6147,7 +6174,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6249,7 +6276,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6402,7 +6429,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6657,7 +6684,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6708,7 +6735,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6762,15 +6789,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6810,50 +6837,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6861,50 +6888,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6912,101 +6939,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7014,101 +7041,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7116,50 +7143,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7167,50 +7194,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7218,50 +7245,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7269,272 +7296,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.41164692038862905</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.35608339128824734</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.37893060562043851</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.53234177751991452</v>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>7.227755646344601E-2</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>8.2091791575585243E-2</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>6.7503714764851216E-2</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12472006787173523</v>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.41164692038862905</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.35608339128824734</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.37893060562043851</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.53234177751991452</v>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7542,50 +7569,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>7.227755646344601E-2</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>4.9583539011941466E-4</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>8.2091791575585243E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.6555648464664465E-4</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>6.7503714764851216E-2</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12472006787173523</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7593,50 +7620,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>7.8411588526902082E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>7.4263445083554702E-2</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7644,50 +7671,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>4.9583539011941466E-4</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.6555648464664465E-4</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7695,221 +7722,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>7.8411588526902082E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.43716809923090344</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>7.4263445083554702E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.48739581556796607</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.55356567961471026</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.3429381546083502</v>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.43716809923090344</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.48739581556796607</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.55356567961471026</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.3429381546083502</v>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7917,522 +7944,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.1341984719189775E-3</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.3967563807194446E-4</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.1341984719189775E-3</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.3967563807194446E-4</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8992,12 +8923,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9679,27 +9606,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9891,7 +9821,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9938,7 +9868,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9966,7 +9896,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10049,7 +9979,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10071,7 +10001,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10139,7 +10069,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10461,7 +10391,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10598,7 +10528,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10929,7 +10859,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10995,7 +10925,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11030,7 +10960,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11051,7 +10981,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11072,7 +11002,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11087,7 +11017,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11118,7 +11048,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11132,7 +11062,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11153,7 +11083,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11168,7 +11098,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11190,7 +11120,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11198,11 +11128,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11230,7 +11160,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11302,7 +11232,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11332,7 +11262,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11362,7 +11292,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11420,12 +11350,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11455,7 +11385,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11485,7 +11415,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11536,7 +11466,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11567,7 +11497,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11588,28 +11518,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14648572027649062</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14648572027649062</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14648572027649062</v>
+        <v>0.14592231366004257</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11639,21 +11569,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10810810810810813</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3706563706563704E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3706563706563704E-2</v>
+        <v>6.3461538461538458E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11670,27 +11600,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11709,24 +11639,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.343639642573951</v>
+        <v>11.315794536503423</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.343639642573951</v>
+        <v>11.315794536503423</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11737,18 +11667,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3916205431655282</v>
+        <v>3.3877160364448016</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3916205431655282</v>
+        <v>3.3877160364448016</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11767,14 +11697,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11787,31 +11717,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28712560.777583566</v>
+        <v>28642080.373974159</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6397937238951767</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6397937238951767</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.5007289935006076</v>
+        <v>7.4823170374608159</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11829,7 +11759,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11854,27 +11784,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>28712560.777583566</v>
+        <v>28642080.373974159</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7938246653109005</v>
+        <v>4.7820573172202474</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6397937238951767</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6397937238951767</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6397937238951767</v>
+        <v>5.6259497849649973</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.5007289935006076</v>
+        <v>7.4823170374608159</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11884,21 +11814,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11911,31 +11841,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8584732.4182139263</v>
+        <v>8574849.489096133</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4332996046684026</v>
+        <v>1.4316495592496956</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.68623482902165</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.68623482902165</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.68623482902165</v>
+        <v>1.6842935991172889</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2426335236881281</v>
+        <v>2.2400517556059021</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11945,21 +11875,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11972,31 +11902,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18648646.597898748</v>
+        <v>18608464.931535143</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1135621349896514</v>
+        <v>3.1068534382349715</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6630142764584135</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6630142764584135</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.6630142764584135</v>
+        <v>3.6551216920411429</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.8716812585943678</v>
+        <v>4.8611843965333588</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12005,7 +11935,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5890A719-739E-4A5A-A05A-780EFC10B58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D317A8-AD4B-41BF-9857-72013DFFBBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45639</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>270</v>
+      <c r="C9" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>5091065770</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>230</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>271</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,427 +3048,431 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>5891068</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>8214719</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>7075818</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>3996951</v>
       </c>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2425040</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>2925125</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>2681244</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>2127744</v>
       </c>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>415858+9934</f>
         <v>425792</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>556324+118037</f>
         <v>674361</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>477644</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>498500</v>
       </c>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>2921</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>1360</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>346446</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>457540</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.18+0.1</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>0.28+0.15</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="E44" s="250">
+      <c r="E44" s="247">
         <f>0.32+0.08</f>
         <v>0.4</v>
       </c>
-      <c r="F44" s="250">
+      <c r="F44" s="247">
         <f>0.09+0.075</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.1076923076923077</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.16538461538461541</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>6.3461538461538458E-2</v>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3531,7 +3543,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3559,7 +3571,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3571,7 +3583,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3590,8 +3602,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3643,7 +3655,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3659,7 +3671,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3671,7 +3683,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3684,7 +3696,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3732,14 +3744,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3763,7 +3775,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3793,19 +3805,19 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>268</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3821,20 +3833,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3864,10 +3876,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3879,12 +3891,12 @@
         <f>C25</f>
         <v>5891068</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>5891068</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>5891068</v>
       </c>
@@ -3897,75 +3909,75 @@
         <f>C26</f>
         <v>2425040</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2425040</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2425040</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>425792</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>425791.99999999994</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>2921</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>2921</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3978,12 +3990,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3996,12 +4008,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>461928</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>461928</v>
       </c>
@@ -4010,16 +4022,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>F44</f>
         <v>0.16499999999999998</v>
       </c>
@@ -4100,7 +4112,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4152,11 +4164,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
+      <c r="G3" s="131">
         <v>2.6</v>
       </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4204,11 +4216,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4230,11 +4242,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0017</v>
       </c>
@@ -4242,7 +4254,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4252,10 +4264,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4263,7 +4275,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4271,13 +4283,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4286,12 +4298,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4301,7 +4313,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4312,7 +4324,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4320,13 +4332,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4336,49 +4348,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4386,77 +4398,77 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
         <v>6.8529615171105034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.43489948089355107</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>6.3461538461538458E-2</v>
       </c>
@@ -4475,10 +4487,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4486,16 +4498,16 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>1.4316495592496956</v>
       </c>
-      <c r="D29" s="129">
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
         <v>2.5760595189467872</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>1.6842935991172889</v>
       </c>
@@ -4509,23 +4521,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4533,9 +4545,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4543,17 +4555,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>disagree</v>
       </c>
@@ -4561,26 +4573,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>disagree</v>
       </c>
@@ -4588,9 +4600,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4603,16 +4615,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5564,10 +5576,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5593,16 +5605,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5616,11 +5628,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5645,7 +5657,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5653,7 +5665,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5717,47 +5729,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>5891068</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>8214719</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>7075818</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3996951</v>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5819,47 +5831,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2425040</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2925125</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2681244</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2127744</v>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5870,47 +5882,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3466028</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>5289594</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>4394574</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>1869207</v>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5921,47 +5933,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>425792</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>674361</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>477644</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>498500</v>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5972,47 +5984,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6021,49 +6033,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>461928</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>610053.33333333337</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6071,50 +6083,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.48756137205261268</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.55356567961471026</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.3429381546083502</v>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6122,50 +6134,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2578308</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4005179.6666666665</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>3916930</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>1370707</v>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6173,50 +6185,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.35625659406540144</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.2530314983077695E-2</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>1.8575983051082399</v>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6227,47 +6239,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6276,49 +6288,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>2921</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1360</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6329,47 +6341,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6380,47 +6392,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6429,49 +6441,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6482,47 +6494,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6533,47 +6545,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2575387</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4003819.6666666665</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>3916930</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>1370707</v>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6584,47 +6596,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.36554686167597455</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.41517425971103272</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.25720361595626268</v>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6635,7 +6647,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1931540.25</v>
       </c>
@@ -6683,50 +6695,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.35676748345059495</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.2183104284903398E-2</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>1.8575983051082399</v>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6843,43 +6855,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6894,43 +6906,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6939,49 +6951,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6996,43 +7008,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7047,43 +7059,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7149,43 +7161,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7200,43 +7212,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7251,43 +7263,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7349,47 +7361,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7398,7 +7410,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7418,47 +7430,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.35608339128824734</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.37893060562043851</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.53234177751991452</v>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7467,49 +7479,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>8.2091791575585243E-2</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>6.7503714764851216E-2</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.12472006787173523</v>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7520,47 +7532,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7571,47 +7583,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.6555648464664465E-4</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7622,47 +7634,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>7.4263445083554702E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7671,49 +7683,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7724,47 +7736,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.48739581556796607</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.55356567961471026</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.3429381546083502</v>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7773,9 +7785,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7790,50 +7804,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7842,49 +7856,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7893,49 +7907,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7944,49 +7958,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7995,7 +8009,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8012,49 +8026,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8064,47 +8078,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8114,47 +8128,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.1341984719189775E-3</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>3.3967563807194446E-4</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8164,47 +8178,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8212,149 +8226,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9650,8 +9664,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9687,8 +9701,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9700,8 +9714,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9711,8 +9725,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9799,11 +9813,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9846,7 +9860,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9874,7 +9888,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9902,7 +9916,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9930,7 +9944,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9943,7 +9957,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9958,7 +9972,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9985,7 +9999,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10007,7 +10021,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10029,7 +10043,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10050,7 +10064,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10058,7 +10072,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10075,7 +10089,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10083,7 +10097,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10102,7 +10116,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10123,7 +10137,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10288,7 +10302,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10317,7 +10331,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10343,7 +10357,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10370,7 +10384,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10397,7 +10411,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10413,7 +10427,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10427,7 +10441,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10454,7 +10468,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10462,7 +10476,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10480,7 +10494,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10488,7 +10502,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10507,7 +10521,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10515,7 +10529,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10534,7 +10548,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10555,7 +10569,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10576,7 +10590,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10597,7 +10611,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10618,7 +10632,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10764,8 +10778,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10791,8 +10805,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10862,7 +10876,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10962,7 +10976,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10970,7 +10984,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11001,11 +11015,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11082,12 +11096,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11166,17 +11180,17 @@
         <f>Data!C6</f>
         <v>5891068</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>5891068</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>5891068</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11187,23 +11201,23 @@
         <f>Data!C8</f>
         <v>2425040</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2425040</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2425040</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.41164692038862905</v>
       </c>
@@ -11213,48 +11227,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>3466028</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3466028</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>3466028</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>425792</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>7.227755646344601E-2</v>
       </c>
@@ -11268,54 +11282,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>461928</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>461928</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>461928</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>7.8411588526902082E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>2578308</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>2578308</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>2578308</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.43766393462102288</v>
       </c>
@@ -11329,55 +11343,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>2921</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>2921</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>2921</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>4.9583539011941466E-4</v>
       </c>
@@ -11385,29 +11399,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11417,27 +11431,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>2575387</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>2575387</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>2575387</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.43716809923090344</v>
       </c>
@@ -11447,49 +11461,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.32787607442317762</v>
       </c>
@@ -11499,69 +11513,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14592231366004257</v>
       </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14592231366004257</v>
       </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14592231366004257</v>
       </c>
-      <c r="I87" s="209"/>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.73801124030420806</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.43489948089355107</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.43489948089355107</v>
       </c>
@@ -11569,23 +11583,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0.1076923076923077</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>6.3461538461538458E-2</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>6.3461538461538458E-2</v>
       </c>
-      <c r="I89" s="209"/>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11607,7 +11621,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11630,25 +11644,25 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>11.315794536503423</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
         <v>11.315794536503423</v>
       </c>
@@ -11658,25 +11672,25 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>3.3877160364448016</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>3.3877160364448016</v>
       </c>
@@ -11692,25 +11706,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11723,17 +11737,17 @@
         <f>H97*Common_Shares/Data!C4</f>
         <v>28642080.373974159</v>
       </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
         <v>5.6259497849649973</v>
       </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
         <v>5.6259497849649973</v>
       </c>
-      <c r="I97" s="123">
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
         <v>7.4823170374608159</v>
       </c>
@@ -11747,14 +11761,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11765,17 +11779,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11816,25 +11830,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11851,7 +11865,7 @@
         <f>MIN(F103*(1-C94),E103)</f>
         <v>1.4316495592496956</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>1.6842935991172889</v>
       </c>
@@ -11859,7 +11873,7 @@
         <f>(E103+H103)/2</f>
         <v>1.6842935991172889</v>
       </c>
-      <c r="H103" s="123">
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
         <v>1.6842935991172889</v>
       </c>
@@ -11877,25 +11891,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11912,7 +11926,7 @@
         <f>(D100+D103)/2</f>
         <v>3.1068534382349715</v>
       </c>
-      <c r="E106" s="123">
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
         <v>3.6551216920411429</v>
       </c>
@@ -11920,11 +11934,11 @@
         <f>(F100+F103)/2</f>
         <v>3.6551216920411429</v>
       </c>
-      <c r="H106" s="123">
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
         <v>3.6551216920411429</v>
       </c>
-      <c r="I106" s="123">
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
         <v>4.8611843965333588</v>
       </c>
@@ -11937,14 +11951,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D317A8-AD4B-41BF-9857-72013DFFBBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55274919-316E-487F-94A7-481E94527D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3274,9 +3274,7 @@
       <c r="B37" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3340,9 +3338,7 @@
       <c r="B41" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3358,9 +3354,7 @@
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3422,19 +3416,19 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1076923076923077</v>
+        <v>0.10852713178294575</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16538461538461541</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15384615384615385</v>
+        <v>0.15503875968992248</v>
       </c>
       <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3953488372093012E-2</v>
       </c>
       <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4165,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4206,7 +4200,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13236.771001999999</v>
+        <v>13134.949686600001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4438,7 +4432,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8529615171105034</v>
+        <v>6.8002464285173456</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4470,7 +4464,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3953488372093012E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4500,20 +4494,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4316495592496956</v>
+        <v>1.4349639799272009</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>2.5760595189467872</v>
+        <v>2.582023370142716</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6842935991172889</v>
+        <v>1.688192917561413</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2400517556059021</v>
+        <v>2.2452377131675791</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11536,17 +11530,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14705349438608942</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14705349438608942</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14592231366004257</v>
+        <v>0.14705349438608942</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11587,17 +11581,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1076923076923077</v>
+        <v>0.10852713178294575</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3953488372093012E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3461538461538458E-2</v>
+        <v>6.3953488372093012E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11657,14 +11651,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.315794536503423</v>
+        <v>11.37175602956761</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.315794536503423</v>
+        <v>11.37175602956761</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11685,14 +11679,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3877160364448016</v>
+        <v>3.395558958623742</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3877160364448016</v>
+        <v>3.395558958623742</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11735,21 +11729,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28642080.373974159</v>
+        <v>28783727.836467527</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6537725373890675</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6537725373890675</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.4823170374608159</v>
+        <v>7.5193203280070664</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11798,27 +11792,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>28642080.373974159</v>
+        <v>28783727.836467527</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.7820573172202474</v>
+        <v>4.805706656780707</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6537725373890675</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>5.6259497849649973</v>
+        <v>5.6537725373890675</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6259497849649973</v>
+        <v>5.6537725373890675</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.4823170374608159</v>
+        <v>7.5193203280070664</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11859,27 +11853,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8574849.489096133</v>
+        <v>8594701.175753342</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4316495592496956</v>
+        <v>1.4349639799272009</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6842935991172889</v>
+        <v>1.688192917561413</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.6842935991172889</v>
+        <v>1.688192917561413</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6842935991172889</v>
+        <v>1.688192917561413</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2400517556059021</v>
+        <v>2.2452377131675791</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11920,27 +11914,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18608464.931535143</v>
+        <v>18689214.506110437</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1068534382349715</v>
+        <v>3.1203353183539537</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6709827274752405</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6709827274752405</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.6551216920411429</v>
+        <v>3.6709827274752405</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>4.8611843965333588</v>
+        <v>4.8822790205873225</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55274919-316E-487F-94A7-481E94527D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6517EC-F890-40EA-8358-C05B735A8C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>5091065770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>5091065770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>273</v>
+      <c r="C19" s="237" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,819 +3039,820 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>5891068</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>8214719</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>7075818</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>3996951</v>
       </c>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
         <v>2425040</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>2925125</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <v>2681244</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="148">
         <v>2127744</v>
       </c>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
         <f>415858+9934</f>
         <v>425792</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>556324+118037</f>
         <v>674361</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="148">
         <v>477644</v>
       </c>
-      <c r="F27" s="149">
+      <c r="F27" s="148">
         <v>498500</v>
       </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>2921</v>
+      </c>
+      <c r="D29" s="148">
+        <v>1360</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>346446</v>
+      </c>
+      <c r="D30" s="148">
+        <v>457540</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>2921</v>
-      </c>
-      <c r="D29" s="149">
-        <v>1360</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>346446</v>
-      </c>
-      <c r="D30" s="149">
-        <v>457540</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.18+0.1</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>0.28+0.15</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="E44" s="247">
+      <c r="E44" s="245">
         <f>0.32+0.08</f>
         <v>0.4</v>
       </c>
-      <c r="F44" s="247">
+      <c r="F44" s="245">
         <f>0.09+0.075</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.10852713178294575</v>
       </c>
-      <c r="D45" s="151">
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="E45" s="151">
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0.15503875968992248</v>
       </c>
-      <c r="F45" s="151">
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>6.3953488372093012E-2</v>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3866,166 +3861,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>5891068</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>5891068</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>5891068</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2425040</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2425040</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2425040</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>425792</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>425791.99999999994</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>2921</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>2921</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>461928</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>461928</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>F44</f>
         <v>0.16499999999999998</v>
       </c>
@@ -4038,32 +4033,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4122,13 +4117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4139,82 +4134,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0639.HK : 首鋼資源</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="130">
         <v>2.58</v>
       </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
         <v>13134.949686600001</v>
       </c>
-      <c r="H5" s="287"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4225,30 +4220,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>Tier 3</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0017</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4258,211 +4253,211 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
         <v>6.8002464285173456</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.43489948089355107</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>6.3953488372093012E-2</v>
       </c>
@@ -4470,68 +4465,68 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>1.4349639799272009</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
         <v>2.582023370142716</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>1.688192917561413</v>
       </c>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>2.2452377131675791</v>
       </c>
-      <c r="H29" s="286"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4539,9 +4534,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4549,17 +4544,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>disagree</v>
       </c>
@@ -4567,26 +4562,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>disagree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>disagree</v>
       </c>
@@ -4594,9 +4589,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4609,16 +4604,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5570,10 +5565,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5599,59 +5594,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>2578308</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5659,19 +5654,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5720,928 +5715,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>5891068</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>8214719</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>7075818</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>3996951</v>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.28286433169533853</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>0.16095679679720432</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.77030391415856747</v>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2425040</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>2925125</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>2681244</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>2127744</v>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3466028</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>5289594</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>4394574</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>1869207</v>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>425792</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>674361</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>477644</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>498500</v>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>461928</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>610053.33333333337</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.48756137205261268</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.55356567961471026</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.3429381546083502</v>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>2578308</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4005179.6666666665</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>3916930</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>1370707</v>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.35625659406540144</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>2.2530314983077695E-2</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>1.8575983051082399</v>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>2921</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1360</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>2575387</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4003819.6666666665</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>3916930</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>1370707</v>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.36554686167597455</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.41517425971103272</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.25720361595626268</v>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>1931540.25</v>
       </c>
@@ -6685,63 +6680,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.35676748345059495</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>2.2183104284903398E-2</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>1.8575983051082399</v>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6787,11 +6782,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6838,266 +6833,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7144,165 +7139,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7348,63 +7343,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7417,372 +7412,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.35608339128824734</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.37893060562043851</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.53234177751991452</v>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>8.2091791575585243E-2</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>6.7503714764851216E-2</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.12472006787173523</v>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.6555648464664465E-4</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>7.4263445083554702E-2</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.48739581556796607</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.55356567961471026</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.3429381546083502</v>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7794,216 +7789,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8019,350 +8014,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.1341984719189775E-3</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>3.3967563807194446E-4</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9641,7 +9636,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9659,7 +9654,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9677,25 +9672,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9703,12 +9698,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9716,28 +9711,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9750,7 +9745,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9759,16 +9754,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9776,7 +9771,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9786,287 +9781,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10077,21 +10072,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10104,45 +10099,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10150,17 +10145,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10170,19 +10165,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10192,17 +10187,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10211,7 +10206,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10221,17 +10216,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10244,7 +10239,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10254,17 +10249,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10291,12 +10286,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10306,171 +10301,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10478,25 +10473,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10504,26 +10499,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10531,113 +10526,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10645,17 +10640,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10665,16 +10660,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10684,16 +10679,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10703,14 +10698,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10723,7 +10718,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10733,14 +10728,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10753,13 +10748,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10767,12 +10762,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10783,63 +10778,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10847,45 +10842,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10893,61 +10888,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10961,35 +10956,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11003,29 +10998,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11039,9 +11034,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11049,28 +11044,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11084,29 +11079,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11120,29 +11115,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11152,66 +11147,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>5891068</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>5891068</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>5891068</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2425040</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2425040</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.41164692038862905</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2425040</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.41164692038862905</v>
       </c>
@@ -11219,50 +11214,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>3466028</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3466028</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>3466028</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>425792</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>7.227755646344601E-2</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>425791.99999999994</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>7.227755646344601E-2</v>
       </c>
@@ -11270,60 +11265,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>461928</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>461928</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>7.8411588526902082E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>461928</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>7.8411588526902082E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>2578308</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>2578308</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.43766393462102288</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>2578308</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.43766393462102288</v>
       </c>
@@ -11331,61 +11326,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>2921</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>2921</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>2921</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>4.9583539011941466E-4</v>
       </c>
@@ -11393,59 +11388,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>2575387</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>2575387</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.43716809923090344</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>2575387</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.43716809923090344</v>
       </c>
@@ -11453,184 +11448,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.32787607442317762</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>1931540.25</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.32787607442317762</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.37939801551611069</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14705349438608942</v>
       </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14705349438608942</v>
       </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
         <v>0.14705349438608942</v>
       </c>
-      <c r="I87" s="206"/>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.73801124030420806</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.43489948089355107</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.43489948089355107</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0.10852713178294575</v>
       </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>6.3953488372093012E-2</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>6.3953488372093012E-2</v>
       </c>
-      <c r="I89" s="206"/>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11638,25 +11633,25 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>11.37175602956761</v>
       </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
         <v>11.37175602956761</v>
       </c>
@@ -11664,27 +11659,27 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>3.395558958623742</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>3.395558958623742</v>
       </c>
@@ -11696,52 +11691,52 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
         <v>28783727.836467527</v>
       </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
         <v>5.6537725373890675</v>
       </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
         <v>5.6537725373890675</v>
       </c>
-      <c r="I97" s="122">
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
         <v>7.5193203280070664</v>
       </c>
@@ -11749,68 +11744,68 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
         <v>28783727.836467527</v>
       </c>
-      <c r="D100" s="109">
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>4.805706656780707</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>5.6537725373890675</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>5.6537725373890675</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>5.6537725373890675</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>7.5193203280070664</v>
       </c>
@@ -11822,56 +11817,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
         <v>8594701.175753342</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>1.4349639799272009</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>1.688192917561413</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
         <v>1.688192917561413</v>
       </c>
-      <c r="H103" s="122">
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
         <v>1.688192917561413</v>
       </c>
-      <c r="I103" s="109">
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
         <v>2.2452377131675791</v>
       </c>
@@ -11883,56 +11878,56 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
         <v>18689214.506110437</v>
       </c>
-      <c r="D106" s="109">
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
         <v>3.1203353183539537</v>
       </c>
-      <c r="E106" s="122">
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
         <v>3.6709827274752405</v>
       </c>
-      <c r="F106" s="109">
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
         <v>3.6709827274752405</v>
       </c>
-      <c r="H106" s="122">
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
         <v>3.6709827274752405</v>
       </c>
-      <c r="I106" s="122">
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
         <v>4.8822790205873225</v>
       </c>
@@ -11943,15 +11938,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE6517EC-F890-40EA-8358-C05B735A8C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B98659-8B1A-48BA-9512-341C8ECE838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,6 +2948,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -2949,7 +2966,7 @@
         <v>223</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3410,19 +3427,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10852713178294575</v>
+        <v>0.10894941634241247</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16666666666666669</v>
+        <v>0.16731517509727628</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15503875968992248</v>
+        <v>0.15564202334630353</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3953488372093012E-2</v>
+        <v>6.4202334630350189E-2</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3833,7 +3850,7 @@
         <v>231</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3843,11 +3860,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3861,10 +3878,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4086,8 +4103,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4100,8 +4120,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4144,60 +4164,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>13134.949686600001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>13084.039028899999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4220,11 +4240,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4365,7 +4385,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4377,20 +4397,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.43766393462102288</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4399,12 +4419,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.43766393462102288</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
@@ -4415,10 +4435,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>4.9583539011941466E-4</v>
       </c>
@@ -4427,7 +4447,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8002464285173456</v>
+        <v>6.7738888842207663</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4459,7 +4479,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3953488372093012E-2</v>
+        <v>6.4202334630350189E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4478,10 +4498,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4489,22 +4509,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4349639799272009</v>
+        <v>1.4366428714215587</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.582023370142716</v>
+        <v>2.5850443080442966</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.688192917561413</v>
-      </c>
-      <c r="G29" s="285">
+        <v>1.6901680840253632</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2452377131675791</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>2.247864615690693</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5535,7 +5555,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7776,7 +7796,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9703,7 +9723,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10750,7 +10770,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10767,7 +10787,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10876,11 +10896,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10891,11 +10911,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10907,11 +10927,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11125,19 +11145,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11147,18 +11167,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11525,17 +11545,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14705349438608942</v>
+        <v>0.14762568697124931</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14705349438608942</v>
+        <v>0.14762568697124931</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14705349438608942</v>
+        <v>0.14762568697124931</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11576,17 +11596,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10852713178294575</v>
+        <v>0.10894941634241247</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3953488372093012E-2</v>
+        <v>6.4202334630350189E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3953488372093012E-2</v>
+        <v>6.4202334630350189E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11617,15 +11637,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11646,14 +11666,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.37175602956761</v>
+        <v>11.400147597394907</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.37175602956761</v>
+        <v>11.400147597394907</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11674,14 +11694,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.395558958623742</v>
+        <v>3.3995317238875171</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.395558958623742</v>
+        <v>3.3995317238875171</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11724,21 +11744,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28783727.836467527</v>
+        <v>28855591.42192141</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6537725373890675</v>
+        <v>5.6678881643914432</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6537725373890675</v>
+        <v>5.6678881643914432</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.5193203280070664</v>
+        <v>7.5380936197091319</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11787,27 +11807,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>28783727.836467527</v>
+        <v>28855591.42192141</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.805706656780707</v>
+        <v>4.8177049397327263</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6537725373890675</v>
+        <v>5.6678881643914432</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.6537725373890675</v>
+        <v>5.6678881643914432</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6537725373890675</v>
+        <v>5.6678881643914432</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.5193203280070664</v>
+        <v>7.5380936197091319</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11848,27 +11868,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8594701.175753342</v>
+        <v>8604756.8781280089</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4349639799272009</v>
+        <v>1.4366428714215587</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.688192917561413</v>
+        <v>1.6901680840253632</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.688192917561413</v>
+        <v>1.6901680840253632</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.688192917561413</v>
+        <v>1.6901680840253632</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2452377131675791</v>
+        <v>2.247864615690693</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11909,27 +11929,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18689214.506110437</v>
+        <v>18730174.150024712</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1203353183539537</v>
+        <v>3.1271739055771426</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.6709827274752405</v>
+        <v>3.6790281242084033</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.6709827274752405</v>
+        <v>3.6790281242084033</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.6709827274752405</v>
+        <v>3.6790281242084033</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.8822790205873225</v>
+        <v>4.8929791176999125</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6B98659-8B1A-48BA-9512-341C8ECE838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{755642EC-902D-4212-BE1A-BC0AC009D4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3427,19 +3427,19 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10894941634241247</v>
+        <v>0.11382113821138212</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16731517509727628</v>
+        <v>0.17479674796747971</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15564202334630353</v>
+        <v>0.16260162601626019</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4202334630350189E-2</v>
+        <v>6.7073170731707307E-2</v>
       </c>
       <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>13084.039028899999</v>
+        <v>12524.0217942</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7738888842207663</v>
+        <v>6.483955896958399</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4202334630350189E-2</v>
+        <v>6.7073170731707307E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4509,20 +4509,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4366428714215587</v>
+        <v>1.456125437448345</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>2.5850443080442966</v>
+        <v>2.6201005474309205</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6901680840253632</v>
+        <v>1.7130887499392293</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.247864615690693</v>
+        <v>2.278348302113844</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9674,7 +9674,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11545,17 +11545,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14762568697124931</v>
+        <v>0.15422683557565475</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14762568697124931</v>
+        <v>0.15422683557565475</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14762568697124931</v>
+        <v>0.15422683557565475</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11596,17 +11596,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10894941634241247</v>
+        <v>0.11382113821138212</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4202334630350189E-2</v>
+        <v>6.7073170731707307E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4202334630350189E-2</v>
+        <v>6.7073170731707307E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11666,14 +11666,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.400147597394907</v>
+        <v>11.731809683714088</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.400147597394907</v>
+        <v>11.731809683714088</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11694,14 +11694,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3995317238875171</v>
+        <v>3.4456333700156581</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.3995317238875171</v>
+        <v>3.4456333700156581</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11744,21 +11744,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28855591.42192141</v>
+        <v>29695081.048806176</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.6678881643914432</v>
+        <v>5.832782837689833</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.6678881643914432</v>
+        <v>5.832782837689833</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.5380936197091319</v>
+        <v>7.7573977853282985</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11785,7 +11785,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11807,27 +11807,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>28855591.42192141</v>
+        <v>29695081.048806176</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8177049397327263</v>
+        <v>4.9578654120363579</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.6678881643914432</v>
+        <v>5.832782837689833</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>5.6678881643914432</v>
+        <v>5.832782837689833</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>5.6678881643914432</v>
+        <v>5.832782837689833</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.5380936197091319</v>
+        <v>7.7573977853282985</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11868,27 +11868,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>8604756.8781280089</v>
+        <v>8721447.4957877006</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4366428714215587</v>
+        <v>1.456125437448345</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6901680840253632</v>
+        <v>1.7130887499392293</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.6901680840253632</v>
+        <v>1.7130887499392293</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6901680840253632</v>
+        <v>1.7130887499392293</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.247864615690693</v>
+        <v>2.278348302113844</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11929,27 +11929,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>18730174.150024712</v>
+        <v>19208264.272296935</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1271739055771426</v>
+        <v>3.2069954247423516</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.6790281242084033</v>
+        <v>3.7729357938145309</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.6790281242084033</v>
+        <v>3.7729357938145309</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.6790281242084033</v>
+        <v>3.7729357938145309</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>4.8929791176999125</v>
+        <v>5.017873043721071</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F31005D-7673-4B81-9FFA-C7FFAF4B16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401A6A3B-4708-4E9B-99F4-34B7F726EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3640,19 +3640,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11200000000000002</v>
+        <v>0.11023622047244096</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.17200000000000001</v>
+        <v>0.16929133858267717</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16</v>
+        <v>0.15748031496062992</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5999999999999989E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>12727.664425000001</v>
+        <v>12931.3070558</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4608,7 +4608,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.5893860741447146</v>
+        <v>6.6948162513310301</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5999999999999989E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4727,20 +4727,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.6861456262138081</v>
+        <v>1.4417685561444684</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.7069369958923986</v>
+        <v>2.5942672836225462</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.9837007367221273</v>
+        <v>1.6961983013464335</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.353858257297738</v>
+        <v>2.2558845944543884</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11777,17 +11777,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15175920620644429</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15175920620644429</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15175920620644429</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11828,17 +11828,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11200000000000002</v>
+        <v>0.11023622047244096</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5999999999999989E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5999999999999989E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11891,21 +11891,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.7497218924268818</v>
+        <v>11.487013503021043</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.7497218924268818</v>
+        <v>11.487013503021043</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11926,14 +11926,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0169608579622644</v>
+        <v>3.411660644838439</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0169608579622644</v>
+        <v>3.411660644838439</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11976,21 +11976,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29289329.907818943</v>
+        <v>29075462.880587064</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.7530841735362106</v>
+        <v>5.711075871759375</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.7530841735362106</v>
+        <v>5.711075871759375</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.8266066731335133</v>
+        <v>7.5955317645556297</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12040,23 +12040,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8901215475057791</v>
+        <v>4.8544144909954685</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.7530841735362106</v>
+        <v>5.711075871759375</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.7530841735362106</v>
+        <v>5.711075871759375</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.7530841735362106</v>
+        <v>5.711075871759375</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.8266066731335133</v>
+        <v>7.5955317645556297</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12095,23 +12095,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.6861456262138081</v>
+        <v>1.4417685561444684</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.9837007367221273</v>
+        <v>1.6961983013464335</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.9837007367221273</v>
+        <v>1.6961983013464335</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.9837007367221273</v>
+        <v>1.6961983013464335</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.353858257297738</v>
+        <v>2.2558845944543884</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12150,23 +12150,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.2881335868597938</v>
+        <v>3.1480915235699687</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.8683924551291691</v>
+        <v>3.703637086552904</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.8683924551291691</v>
+        <v>3.703637086552904</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.8683924551291691</v>
+        <v>3.703637086552904</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.5902324652156254</v>
+        <v>4.9257081795050093</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401A6A3B-4708-4E9B-99F4-34B7F726EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{931266F4-1A4D-4DA8-8E5C-1EF1AC89EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4292,7 +4293,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4315,6 +4316,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4333,8 +4337,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4370,18 +4374,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4397,7 +4404,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
@@ -4426,11 +4433,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>12931.3070558</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4453,11 +4460,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4525,10 +4532,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4575,7 +4582,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4716,10 +4723,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4727,22 +4734,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4417685561444684</v>
+        <v>1.5787961461912567</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.5942672836225462</v>
+        <v>2.9172276278438578</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.6961983013464335</v>
-      </c>
-      <c r="G29" s="312">
+        <v>1.8574072308132432</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.2558845944543884</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>2.5367196763859634</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5724,15 +5731,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5760,7 +5768,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11887,7 +11895,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11898,14 +11906,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.487013503021043</v>
+        <v>12.578754455787504</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.487013503021043</v>
+        <v>12.578754455787504</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11926,14 +11934,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.411660644838439</v>
+        <v>3.7359093838106872</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.411660644838439</v>
+        <v>3.7359093838106872</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11976,21 +11984,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>29075462.880587064</v>
+        <v>31838833.319651119</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>5.711075871759375</v>
+        <v>6.2538640744472485</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>5.711075871759375</v>
+        <v>6.2538640744472485</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>7.5955317645556297</v>
+        <v>8.5410995434467196</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12040,23 +12048,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.8544144909954685</v>
+        <v>5.3157844632801607</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.711075871759375</v>
+        <v>6.2538640744472485</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.711075871759375</v>
+        <v>6.2538640744472485</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.711075871759375</v>
+        <v>6.2538640744472485</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>7.5955317645556297</v>
+        <v>8.5410995434467196</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12095,23 +12103,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4417685561444684</v>
+        <v>1.5787961461912567</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.6961983013464335</v>
+        <v>1.8574072308132432</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.6961983013464335</v>
+        <v>1.8574072308132432</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.6961983013464335</v>
+        <v>1.8574072308132432</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2558845944543884</v>
+        <v>2.5367196763859634</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12150,23 +12158,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.1480915235699687</v>
+        <v>3.4472903047357089</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.703637086552904</v>
+        <v>4.0556356526302455</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.703637086552904</v>
+        <v>4.0556356526302455</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.703637086552904</v>
+        <v>4.0556356526302455</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.9257081795050093</v>
+        <v>5.5389096099163417</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931266F4-1A4D-4DA8-8E5C-1EF1AC89EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A779FD96-DB30-4B21-AA1E-6ED5A75B0DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3641,19 +3641,19 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11023622047244096</v>
+        <v>0.10980392156862746</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16929133858267717</v>
+        <v>0.1686274509803922</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15748031496062992</v>
+        <v>0.15686274509803924</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4960629921259838E-2</v>
+        <v>6.4705882352941169E-2</v>
       </c>
       <c r="G45" s="87" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4374,27 +4374,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>2.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4404,40 +4404,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>12931.3070558</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>12982.2177135</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4460,11 +4460,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4615,7 +4615,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6948162513310301</v>
+        <v>6.7211737956276085</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>6.4705882352941169E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4723,10 +4723,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4734,22 +4734,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.5787961461912567</v>
+        <v>1.7032356860425137</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.9172276278438578</v>
+        <v>2.9569633315693102</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.8574072308132432</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.003806689461781</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.5367196763859634</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>2.5712724622341829</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5732,15 +5732,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11113,7 +11113,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11124,11 +11124,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11140,11 +11140,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11785,17 +11785,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.14878353549651402</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.14878353549651402</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.14878353549651402</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11836,17 +11836,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11023622047244096</v>
+        <v>0.10980392156862746</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>6.4705882352941169E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>6.4705882352941169E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11899,21 +11899,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.578754455787504</v>
+        <v>10.921756521994528</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>12.578754455787504</v>
+        <v>10.921756521994528</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11934,14 +11934,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7359093838106872</v>
+        <v>3.5046704236604627</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.7359093838106872</v>
+        <v>3.5046704236604627</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11984,21 +11984,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31838833.319651119</v>
+        <v>31791413.425424073</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.2538640744472485</v>
+        <v>6.2445497390272511</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.2538640744472485</v>
+        <v>6.2445497390272511</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.5410995434467196</v>
+        <v>8.0129679511775436</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12048,23 +12048,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.3157844632801607</v>
+        <v>5.3078672781731635</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.2538640744472485</v>
+        <v>6.2445497390272511</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>6.2538640744472485</v>
+        <v>6.2445497390272511</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.2538640744472485</v>
+        <v>6.2445497390272511</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.5410995434467196</v>
+        <v>8.0129679511775436</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12103,23 +12103,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5787961461912567</v>
+        <v>1.7032356860425137</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.8574072308132432</v>
+        <v>2.003806689461781</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.8574072308132432</v>
+        <v>2.003806689461781</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.8574072308132432</v>
+        <v>2.003806689461781</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.5367196763859634</v>
+        <v>2.5712724622341829</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12158,23 +12158,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.4472903047357089</v>
+        <v>3.5055514821078386</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.0556356526302455</v>
+        <v>4.124178214244516</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.0556356526302455</v>
+        <v>4.124178214244516</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.0556356526302455</v>
+        <v>4.124178214244516</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>5.5389096099163417</v>
+        <v>5.2921202067058637</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0355B85-A878-400B-BD3E-6EF21E84D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{633CBBD1-6BA6-4C0B-9BF0-5BB330045EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3664,19 +3664,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10980392156862746</v>
+        <v>0.11023622047244096</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1686274509803922</v>
+        <v>0.16929133858267717</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15686274509803924</v>
+        <v>0.15748031496062992</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4705882352941169E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4402,27 +4402,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>2.5499999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4432,7 +4432,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
@@ -4461,11 +4461,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>12982.2177135</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>12931.3070558</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4488,11 +4488,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7211737956276085</v>
+        <v>6.6948162513310301</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4705882352941169E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4751,10 +4751,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4762,22 +4762,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7174293167595343</v>
+        <v>1.7190735942883055</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.9871300183890819</v>
+        <v>2.9899899152808054</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0205050785406287</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.0224395226921241</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.5975043638165931</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>2.5999912306789614</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5760,15 +5760,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11915,17 +11915,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14878353549651402</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14878353549651402</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14878353549651402</v>
+        <v>0.14936929744728766</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11966,17 +11966,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10980392156862746</v>
+        <v>0.11023622047244096</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4705882352941169E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4705882352941169E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12036,14 +12036,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.012771159677815</v>
+        <v>11.035249886834066</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.012771159677815</v>
+        <v>11.035249886834066</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12064,14 +12064,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5338760105242994</v>
+        <v>3.5372593654355411</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5338760105242994</v>
+        <v>3.5372593654355411</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12114,21 +12114,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32056341.870635938</v>
+        <v>32121773.699926633</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.2965876535191443</v>
+        <v>6.3094399387275315</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.2965876535191443</v>
+        <v>6.3094399387275315</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.0947155643790101</v>
+        <v>8.1112380998917217</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12178,23 +12178,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.3520995054912728</v>
+        <v>5.3630239479184016</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.2965876535191443</v>
+        <v>6.3094399387275315</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>6.2965876535191443</v>
+        <v>6.3094399387275315</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.2965876535191443</v>
+        <v>6.3094399387275315</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.0947155643790101</v>
+        <v>8.1112380998917217</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12233,23 +12233,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7174293167595343</v>
+        <v>1.7190735942883055</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0205050785406287</v>
+        <v>2.0224395226921241</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.0205050785406287</v>
+        <v>2.0224395226921241</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0205050785406287</v>
+        <v>2.0224395226921241</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.5975043638165931</v>
+        <v>2.5999912306789614</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12288,23 +12288,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.5347644111254035</v>
+        <v>3.5410487711033536</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.1585463660298867</v>
+        <v>4.1659397307098276</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.1585463660298867</v>
+        <v>4.1659397307098276</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.1585463660298867</v>
+        <v>4.1659397307098276</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.3461099640978018</v>
+        <v>5.3556146652853416</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0639.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0639.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633CBBD1-6BA6-4C0B-9BF0-5BB330045EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2405A6A5-3E72-4FF3-8D8F-DA0EE031D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3664,19 +3664,19 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.11023622047244096</v>
+        <v>0.12280701754385967</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.16929133858267717</v>
+        <v>0.18859649122807021</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.15748031496062992</v>
+        <v>0.17543859649122809</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4960629921259838E-2</v>
+        <v>7.2368421052631582E-2</v>
       </c>
       <c r="G45" s="82" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4402,27 +4402,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0639.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>2.54</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4432,40 +4432,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>首鋼資源</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>5091065770</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>12931.3070558</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>11607.629955599998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4488,11 +4488,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6948162513310301</v>
+        <v>6.0095200996199791</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>7.2368421052631582E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4751,10 +4751,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4762,22 +4762,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7190735942883055</v>
+        <v>1.7674059957737154</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>2.9899899152808054</v>
+        <v>3.0740546077423909</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0224395226921241</v>
-      </c>
-      <c r="G29" s="314">
+        <v>2.0793011714984888</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.5999912306789614</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>2.673090963254253</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5760,15 +5760,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11243,7 +11243,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11254,11 +11254,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11270,11 +11270,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11915,17 +11915,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.16640263838425909</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.16640263838425909</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936929744728766</v>
+        <v>0.16640263838425909</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11966,17 +11966,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.11023622047244096</v>
+        <v>0.12280701754385967</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>7.2368421052631582E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.4960629921259838E-2</v>
+        <v>7.2368421052631582E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12036,14 +12036,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.035249886834066</v>
+        <v>11.704093374864039</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>11.035249886834066</v>
+        <v>11.704093374864039</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12064,14 +12064,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5372593654355411</v>
+        <v>3.6367107445831777</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.5372593654355411</v>
+        <v>3.6367107445831777</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12114,21 +12114,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32121773.699926633</v>
+        <v>34068665.649224579</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>6.3094399387275315</v>
+        <v>6.6918533738024335</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>6.3094399387275315</v>
+        <v>6.6918533738024335</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>8.1112380998917217</v>
+        <v>8.6028580304422579</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12178,23 +12178,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>5.3630239479184016</v>
+        <v>5.6880753677320683</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>6.3094399387275315</v>
+        <v>6.6918533738024335</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>6.3094399387275315</v>
+        <v>6.6918533738024335</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>6.3094399387275315</v>
+        <v>6.6918533738024335</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.1112380998917217</v>
+        <v>8.6028580304422579</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12233,23 +12233,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.7190735942883055</v>
+        <v>1.7674059957737154</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.0224395226921241</v>
+        <v>2.0793011714984888</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.0224395226921241</v>
+        <v>2.0793011714984888</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.0224395226921241</v>
+        <v>2.0793011714984888</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.5999912306789614</v>
+        <v>2.673090963254253</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12288,23 +12288,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.5410487711033536</v>
+        <v>3.7277406817528917</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.1659397307098276</v>
+        <v>4.3855772726504609</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.1659397307098276</v>
+        <v>4.3855772726504609</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.1659397307098276</v>
+        <v>4.3855772726504609</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.3556146652853416</v>
+        <v>5.6379744968482557</v>
       </c>
       <c r="K106" s="75"/>
     </row>
